--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="15680" windowHeight="9370"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>AP</t>
   </si>
   <si>
+    <t>pixelUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -52,7 +55,13 @@
     <t>Leo</t>
   </si>
   <si>
+    <t>Sprite/Character/PixelAlfven</t>
+  </si>
+  <si>
     <t>Kizuna</t>
+  </si>
+  <si>
+    <t>Sprite/Character/PixelNormal</t>
   </si>
 </sst>
 </file>
@@ -1023,15 +1032,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="10" max="10" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,42 +1071,48 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1117,13 +1135,16 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1145,6 +1166,9 @@
       </c>
       <c r="I5">
         <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15680" windowHeight="9370"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -46,22 +46,34 @@
     <t>pixelUrl</t>
   </si>
   <si>
+    <t>startPos</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>Leo</t>
   </si>
   <si>
     <t>Sprite/Character/PixelAlfven</t>
   </si>
   <si>
+    <t>1;1</t>
+  </si>
+  <si>
     <t>Kizuna</t>
   </si>
   <si>
     <t>Sprite/Character/PixelNormal</t>
+  </si>
+  <si>
+    <t>2;3</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1043,7 +1055,7 @@
     <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,45 +1086,51 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1136,15 +1154,18 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1168,7 +1189,10 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>pixelUrl</t>
   </si>
   <si>
+    <t>portraitUrl</t>
+  </si>
+  <si>
     <t>startPos</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>Sprite/Character/PixelAlfven</t>
   </si>
   <si>
+    <t>Sprite/Portrait/imgPortrait1001</t>
+  </si>
+  <si>
     <t>1;1</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>Sprite/Character/PixelNormal</t>
+  </si>
+  <si>
+    <t>Sprite/Portrait/imgPortrait2001</t>
   </si>
   <si>
     <t>2;3</t>
@@ -1044,18 +1053,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K5"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="31.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,48 +1099,54 @@
       <c r="K2" t="s">
         <v>10</v>
       </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1154,18 +1170,21 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1189,10 +1208,13 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -40,7 +40,13 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>AP</t>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>AttackID</t>
+  </si>
+  <si>
+    <t>startPos</t>
   </si>
   <si>
     <t>pixelUrl</t>
@@ -49,9 +55,6 @@
     <t>portraitUrl</t>
   </si>
   <si>
-    <t>startPos</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -64,25 +67,25 @@
     <t>Leo</t>
   </si>
   <si>
+    <t>1;1</t>
+  </si>
+  <si>
     <t>Sprite/Character/PixelAlfven</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait1001</t>
   </si>
   <si>
-    <t>1;1</t>
-  </si>
-  <si>
     <t>Kizuna</t>
   </si>
   <si>
+    <t>2;3</t>
+  </si>
+  <si>
     <t>Sprite/Character/PixelNormal</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait2001</t>
-  </si>
-  <si>
-    <t>2;3</t>
   </si>
 </sst>
 </file>
@@ -1053,19 +1056,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="31.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="32" customWidth="1"/>
+    <col min="13" max="13" width="31.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,51 +1105,57 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1169,8 +1178,8 @@
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
+      <c r="J4">
+        <v>11001</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1178,13 +1187,16 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1205,16 +1217,19 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>21001</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>11001</v>
+        <v>1101</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>21001</v>
+        <v>2001</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -107,34 +107,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -148,14 +120,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,6 +164,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -245,7 +224,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,49 +260,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,121 +398,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,21 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,6 +483,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,148 +556,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -711,52 +711,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>1102</v>
+        <v>1001</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -40,7 +40,7 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>SP</t>
+    <t>AP</t>
   </si>
   <si>
     <t>AttackID</t>
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1176,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>1001</v>
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -1214,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5">
         <v>2001</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="13260" windowHeight="10120"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>4</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13260" windowHeight="10120"/>
+    <workbookView windowWidth="13340" windowHeight="10120"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
   <sheetPr/>
   <dimension ref="A2:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13340" windowHeight="10120"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>9</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="18940" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>9</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18940" windowHeight="8040"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -70,19 +70,19 @@
     <t>1;1</t>
   </si>
   <si>
+    <t>Sprite/Character/pc_Leo_Idle</t>
+  </si>
+  <si>
+    <t>Sprite/Portrait/imgPortrait1001</t>
+  </si>
+  <si>
+    <t>Kizuna</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
     <t>Sprite/Character/PixelAlfven</t>
-  </si>
-  <si>
-    <t>Sprite/Portrait/imgPortrait1001</t>
-  </si>
-  <si>
-    <t>Kizuna</t>
-  </si>
-  <si>
-    <t>2;3</t>
-  </si>
-  <si>
-    <t>Sprite/Character/PixelNormal</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait2001</t>
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="15860" windowHeight="10840"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>1;1</t>
   </si>
   <si>
-    <t>Sprite/Character/pc_Leo_Idle</t>
+    <t>pc_Leo_Idle</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait1001</t>
@@ -82,7 +82,7 @@
     <t>2;3</t>
   </si>
   <si>
-    <t>Sprite/Character/PixelAlfven</t>
+    <t>PixelAlfven</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait2001</t>
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -70,7 +70,7 @@
     <t>1;1</t>
   </si>
   <si>
-    <t>pc_Leo_Idle</t>
+    <t>pc_LeoH_Idle</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait1001</t>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15860" windowHeight="10840"/>
+    <workbookView windowWidth="13760" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13760" windowHeight="6800"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -25,16 +25,13 @@
     <t>HP</t>
   </si>
   <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>WIS</t>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>RES</t>
   </si>
   <si>
     <t>MOV</t>
@@ -1056,19 +1053,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M5"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="12" max="12" width="32" customWidth="1"/>
-    <col min="13" max="13" width="31.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="31.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,81 +1102,75 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1001</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>1001</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1187,49 +1178,43 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>2001</v>
+      </c>
+      <c r="J5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>2001</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -76,7 +76,7 @@
     <t>Kizuna</t>
   </si>
   <si>
-    <t>2;3</t>
+    <t>1;2</t>
   </si>
   <si>
     <t>PixelAlfven</t>
@@ -1056,7 +1056,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1152,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="13870" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>Leo</t>
   </si>
   <si>
-    <t>1;1</t>
+    <t>1;0</t>
   </si>
   <si>
     <t>pc_LeoH_Idle</t>
@@ -76,7 +76,7 @@
     <t>Kizuna</t>
   </si>
   <si>
-    <t>1;2</t>
+    <t>2;0</t>
   </si>
   <si>
     <t>PixelAlfven</t>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13870" windowHeight="9090"/>
+    <workbookView windowWidth="16750" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>1;0</t>
   </si>
   <si>
-    <t>pc_LeoH_Idle</t>
+    <t>pc_Leo_Idle</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait1001</t>
@@ -82,7 +82,7 @@
     <t>PixelAlfven</t>
   </si>
   <si>
-    <t>Sprite/Portrait/imgPortrait2001</t>
+    <t>Sprite/Portrait/imgAlfvenFullUI</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16750" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
     <t>pixelUrl</t>
   </si>
   <si>
+    <t>aniUrl</t>
+  </si>
+  <si>
     <t>portraitUrl</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>pc_Leo_Idle</t>
+  </si>
+  <si>
+    <t>ani_pc_Leo</t>
   </si>
   <si>
     <t>Sprite/Portrait/imgPortrait1001</t>
@@ -1053,19 +1059,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="31.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="12.2727272727273" customWidth="1"/>
+    <col min="12" max="12" width="11.0909090909091" customWidth="1"/>
+    <col min="13" max="13" width="31.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,51 +1109,57 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1170,21 +1183,24 @@
         <v>1001</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -1208,13 +1224,13 @@
         <v>2001</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15640" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>ani_pc_Leo</t>
   </si>
   <si>
-    <t>Sprite/Portrait/imgPortrait1001</t>
+    <t>imgPortrait1001</t>
   </si>
   <si>
     <t>Kizuna</t>
@@ -85,10 +85,10 @@
     <t>2;0</t>
   </si>
   <si>
-    <t>PixelAlfven</t>
-  </si>
-  <si>
-    <t>Sprite/Portrait/imgAlfvenFullUI</t>
+    <t>pc_Ward_Idle</t>
+  </si>
+  <si>
+    <t>imgPortrait1002</t>
   </si>
 </sst>
 </file>
@@ -1061,15 +1061,15 @@
   <sheetPr/>
   <dimension ref="A2:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="11" max="11" width="12.2727272727273" customWidth="1"/>
     <col min="12" max="12" width="11.0909090909091" customWidth="1"/>
-    <col min="13" max="13" width="31.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="16.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>pc_Ward_Idle</t>
+  </si>
+  <si>
+    <t>ani_pc_Ward</t>
   </si>
   <si>
     <t>imgPortrait1002</t>
@@ -1062,7 +1065,7 @@
   <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1229,8 +1232,11 @@
       <c r="K5" t="s">
         <v>23</v>
       </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15640" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,9 @@
     <t>portraitUrl</t>
   </si>
   <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -79,7 +82,10 @@
     <t>imgPortrait1001</t>
   </si>
   <si>
-    <t>Kizuna</t>
+    <t>pc_Leo_Icon</t>
+  </si>
+  <si>
+    <t>Ward</t>
   </si>
   <si>
     <t>2;0</t>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>imgPortrait1002</t>
+  </si>
+  <si>
+    <t>pc_Ward_Icon</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M5"/>
+  <dimension ref="A2:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1073,9 +1082,10 @@
     <col min="11" max="11" width="12.2727272727273" customWidth="1"/>
     <col min="12" max="12" width="11.0909090909091" customWidth="1"/>
     <col min="13" max="13" width="16.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="13.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,54 +1125,60 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1186,24 +1202,27 @@
         <v>1001</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -1227,16 +1246,19 @@
         <v>2001</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16080" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
   <dimension ref="A2:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1184,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Assets/Excel/Character.xlsx
+++ b/Assets/Excel/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="11480"/>
+    <workbookView windowWidth="10560" windowHeight="12250"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
   <dimension ref="A2:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
